--- a/data/large/data10.xlsx
+++ b/data/large/data10.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,21 +472,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22_G_01,24_A_01</t>
+          <t>23_A_03,24_A_03,23_C_02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M_20</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MT_32</t>
+          <t>MT_28</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -508,30 +508,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23_G_03</t>
+          <t>22_A_01,21_H_02,23_H_03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>M_22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PT_02</t>
+          <t>MT_50</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -544,30 +544,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23_G_03,23_A_02,22_G_03</t>
+          <t>22_C_01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PT_19</t>
+          <t>MT_10</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -580,17 +580,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>23_C_02,21_C_01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>M_20</t>
+          <t>M_29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>MT_36</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -616,21 +616,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>23_C_02,21_C_01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L_20</t>
+          <t>L_29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>MT_36</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -652,30 +652,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24_G_01</t>
+          <t>23_H_01,24_H_02,23_C_03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>M_66</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MT_65</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -688,21 +688,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24_G_02,23_A_02</t>
+          <t>23_H_02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M_47</t>
+          <t>M_21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MT_03</t>
+          <t>MT_31</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -724,21 +724,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24_G_02,23_A_02</t>
+          <t>23_H_02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>L_47</t>
+          <t>L_21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MT_03</t>
+          <t>MT_31</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -760,21 +760,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21_A_03,22_A_03</t>
+          <t>23_A_03,21_H_02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>M_53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MT_16</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -796,21 +796,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21_G_02,24_G_03</t>
+          <t>22_C_01,23_A_03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M_42</t>
+          <t>M_29</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MT_28</t>
+          <t>MT_06</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -832,21 +832,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>22_C_01,23_A_03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>M_09</t>
+          <t>L_29</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>MT_06</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -868,12 +868,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22_G_01,23_A_02</t>
+          <t>22_A_01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -904,17 +904,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24_G_02,21_G_02</t>
+          <t>22_A_03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PT_09</t>
+          <t>PT_04</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -940,21 +940,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24_A_01,23_A_01</t>
+          <t>24_C_01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>M_03</t>
+          <t>M_64</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MT_11</t>
+          <t>MT_09</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -976,30 +976,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21_G_02</t>
+          <t>24_C_01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>L_64</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PT_06</t>
+          <t>MT_09</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1012,21 +1012,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22_A_03,23_A_02</t>
+          <t>23_C_02</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>M_22</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1048,21 +1048,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22_A_03,23_A_02</t>
+          <t>23_C_02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L_30</t>
+          <t>L_22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1084,21 +1084,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24_A_02</t>
+          <t>24_C_03</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>M_59</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MT_36</t>
+          <t>MT_54</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1120,21 +1120,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>21_H_02,22_H_02,24_H_01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PT_03</t>
+          <t>PT_12</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1156,21 +1156,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21_A_03,24_G_02,22_G_01</t>
+          <t>21_H_01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M_19</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MT_33</t>
+          <t>MT_47</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1192,25 +1192,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>24_H_03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M_34</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>PT_10</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1228,21 +1228,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>24_C_03,23_C_03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>L_34</t>
+          <t>M_04</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1264,21 +1264,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24_G_02,23_G_01</t>
+          <t>24_C_03,23_C_03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>M_28</t>
+          <t>L_04</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1300,21 +1300,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24_G_02,23_G_01</t>
+          <t>24_C_03,24_C_02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L_28</t>
+          <t>M_02</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_24</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1336,30 +1336,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22_A_02,22_G_01</t>
+          <t>24_C_03,24_C_02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>L_02</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>MT_24</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1372,25 +1372,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21_G_02</t>
+          <t>22_C_02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_50</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PT_23</t>
+          <t>MT_47</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>24_A_02,21_H_02,23_C_02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M_08</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>PT_21</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1444,30 +1444,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>22_C_01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>L_08</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>PT_23</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1480,21 +1480,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23_A_02,23_G_01</t>
+          <t>21_C_01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>M_01</t>
+          <t>M_47</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_35</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1516,21 +1516,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23_A_02,23_G_01</t>
+          <t>22_C_01</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>L_01</t>
+          <t>M_28</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_64</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1552,17 +1552,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21_G_03,24_G_01</t>
+          <t>22_A_02,23_A_03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1588,30 +1588,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22_A_03</t>
+          <t>22_A_02,23_A_03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>L_03</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PT_11</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1624,25 +1624,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21_G_03</t>
+          <t>23_A_02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_54</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>MT_14</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1660,25 +1660,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23_A_03,23_A_02</t>
+          <t>22_C_02,22_A_03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>M_52</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PT_04</t>
+          <t>MT_52</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1696,30 +1696,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23_G_02</t>
+          <t>22_C_02,22_A_03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>L_52</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>MT_52</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1732,30 +1732,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>24_G_01</t>
+          <t>22_C_03,22_A_01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>M_12</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PT_07</t>
+          <t>MT_60</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1768,21 +1768,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>21_G_03,23_G_02</t>
+          <t>22_C_03,22_A_01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>M_40</t>
+          <t>L_12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_60</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1804,21 +1804,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21_G_03,23_G_02</t>
+          <t>21_C_02</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L_40</t>
+          <t>M_32</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1840,21 +1840,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>23_G_01</t>
+          <t>21_C_02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>M_44</t>
+          <t>L_32</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MT_21</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1876,25 +1876,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>23_G_03,21_G_01</t>
+          <t>22_A_01,21_C_02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PT_19</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1912,21 +1912,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21_G_01,24_G_01</t>
+          <t>21_H_03,21_A_01,22_H_03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PT_14</t>
+          <t>PT_12</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1948,21 +1948,21 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>24_A_01,23_A_03</t>
+          <t>21_C_03,21_A_03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>M_15</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MT_52</t>
+          <t>MT_49</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1984,21 +1984,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23_A_01,22_A_03,24_G_02</t>
+          <t>21_C_03,21_A_03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>L_67</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MT_07</t>
+          <t>MT_49</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2020,21 +2020,21 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22_A_02,23_G_02,24_A_02</t>
+          <t>21_A_01,23_A_03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>M_38</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MT_05</t>
+          <t>MT_51</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2056,30 +2056,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23_A_03,24_A_01</t>
+          <t>22_C_01,22_A_03,21_A_02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MT_03</t>
+          <t>PT_10</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2092,30 +2092,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22_G_02,23_A_02</t>
+          <t>22_H_03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>M_53</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MT_47</t>
+          <t>PT_06</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2128,21 +2128,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>21_A_01,24_G_01</t>
+          <t>24_A_01,21_H_01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>M_25</t>
+          <t>M_04</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>MT_03</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2164,21 +2164,21 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>21_A_01,24_G_01</t>
+          <t>24_A_01,21_H_01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>L_25</t>
+          <t>L_04</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>MT_03</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2200,30 +2200,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>21_A_03,24_G_01</t>
+          <t>21_A_01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PT_10</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2236,21 +2236,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22_A_03,24_A_01,24_A_03</t>
+          <t>21_A_01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>M_10</t>
+          <t>L_30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2272,21 +2272,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>24_G_03</t>
+          <t>23_A_01,22_H_02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>M_44</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>MT_35</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2308,21 +2308,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>24_G_03</t>
+          <t>23_A_01,22_H_02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L_51</t>
+          <t>L_44</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>MT_35</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2344,25 +2344,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>23_G_02</t>
+          <t>22_C_02</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>M_38</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MT_48</t>
+          <t>PT_17</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2380,30 +2380,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>23_G_02</t>
+          <t>21_A_03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>L_38</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MT_48</t>
+          <t>PT_20</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2416,21 +2416,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22_A_03,22_G_02</t>
+          <t>21_C_02</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>M_65</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_58</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2452,21 +2452,21 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22_A_03,22_G_02</t>
+          <t>24_A_03,23_C_02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>L_65</t>
+          <t>M_69</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2488,21 +2488,21 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>21_A_01,21_G_03</t>
+          <t>24_A_03,23_C_02</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>M_26</t>
+          <t>L_69</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22_A_01,24_G_01</t>
+          <t>21_H_03,24_H_03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>M_55</t>
+          <t>P_08</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>PT_19</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2560,30 +2560,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22_A_01,24_G_01</t>
+          <t>23_H_03,24_H_03</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>L_55</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>PT_11</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2596,21 +2596,21 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>24_A_03,21_A_02</t>
+          <t>24_C_02</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>M_41</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MT_55</t>
+          <t>MT_07</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2632,21 +2632,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21_A_01</t>
+          <t>24_C_02</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>M_14</t>
+          <t>L_40</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MT_62</t>
+          <t>MT_07</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2668,21 +2668,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21_A_01</t>
+          <t>22_A_01,21_H_02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>L_14</t>
+          <t>M_01</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MT_62</t>
+          <t>MT_59</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2704,21 +2704,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22_G_03,21_A_03</t>
+          <t>22_A_01,21_H_02</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>L_01</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MT_61</t>
+          <t>MT_59</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2740,30 +2740,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22_G_03,21_A_03</t>
+          <t>23_A_01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MT_61</t>
+          <t>PT_02</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2776,21 +2776,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>23_G_01</t>
+          <t>22_A_03</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_01</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>MT_19</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2812,21 +2812,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>23_G_01</t>
+          <t>22_A_03</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>L_23</t>
+          <t>L_01</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MT_08</t>
+          <t>MT_19</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2848,30 +2848,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>24_G_01,22_G_02</t>
+          <t>21_H_03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PT_13</t>
+          <t>MT_53</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2884,21 +2884,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>21_G_02,24_G_03</t>
+          <t>21_H_03</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>M_56</t>
+          <t>L_43</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MT_03</t>
+          <t>MT_53</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -2920,30 +2920,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>22_A_02,24_G_03,23_G_02</t>
+          <t>24_C_02,22_C_02</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>M_06</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PT_09</t>
+          <t>MT_35</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2956,21 +2956,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>24_A_02,21_G_03</t>
+          <t>24_H_03,22_H_01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>M_25</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>MT_07</t>
+          <t>MT_11</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2992,21 +2992,21 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>24_A_02,21_G_03</t>
+          <t>24_H_03,22_H_01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>L_45</t>
+          <t>L_25</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MT_07</t>
+          <t>MT_11</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3028,30 +3028,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>21_A_01</t>
+          <t>23_C_01,24_C_02</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>M_57</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MT_68</t>
+          <t>PT_14</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3064,17 +3064,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>21_A_03</t>
+          <t>23_C_02</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>M_17</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PT_09</t>
+          <t>MT_35</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3100,21 +3100,21 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>23_A_01,24_A_03,22_A_02</t>
+          <t>22_C_01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PT_03</t>
+          <t>PT_29</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3136,21 +3136,21 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>21_H_02</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M_02</t>
+          <t>M_08</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>MT_49</t>
+          <t>MT_22</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3172,21 +3172,21 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>21_G_01</t>
+          <t>21_H_02</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>L_08</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>MT_58</t>
+          <t>MT_22</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3208,21 +3208,21 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>22_A_02</t>
+          <t>21_A_02,21_H_03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>MT_33</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3244,21 +3244,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>22_G_01,24_A_03</t>
+          <t>21_A_02,21_H_03</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>M_52</t>
+          <t>L_03</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3280,17 +3280,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>24_G_02,21_A_01</t>
+          <t>21_A_02</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>M_39</t>
+          <t>M_65</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_63</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3316,21 +3316,21 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>24_G_02,21_A_01</t>
+          <t>24_H_01,22_C_02</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>L_39</t>
+          <t>M_02</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_21</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3352,17 +3352,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>21_G_03</t>
+          <t>24_H_01,22_C_02</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>M_34</t>
+          <t>L_02</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MT_66</t>
+          <t>MT_21</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3388,25 +3388,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>21_G_02</t>
+          <t>24_A_01</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>M_55</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MT_45</t>
+          <t>PT_11</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3424,21 +3424,21 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>22_C_02,24_A_01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>M_29</t>
+          <t>M_07</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_59</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3460,21 +3460,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>21_A_02,23_G_02</t>
+          <t>22_C_02,24_A_01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>M_22</t>
+          <t>L_07</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MT_62</t>
+          <t>MT_59</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3496,21 +3496,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>21_A_02,23_G_02</t>
+          <t>21_H_03</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>L_22</t>
+          <t>M_63</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MT_62</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3532,30 +3532,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>21_A_03</t>
+          <t>21_H_03</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>L_63</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PT_14</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3568,21 +3568,21 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>23_A_03,23_H_01</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PT_07</t>
+          <t>PT_16</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3604,17 +3604,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>23_G_03,22_G_02</t>
+          <t>23_H_02,21_A_03,24_H_03</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_08</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>MT_24</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3622,12 +3622,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3640,21 +3640,21 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>22_A_03,21_G_01</t>
+          <t>21_C_03,22_C_03,24_A_01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>M_27</t>
+          <t>M_01</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MT_05</t>
+          <t>MT_16</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3676,17 +3676,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>22_A_03,21_G_01</t>
+          <t>22_H_02</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>L_27</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>MT_05</t>
+          <t>PT_24</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3694,12 +3694,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -3712,21 +3712,21 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>22_G_03</t>
+          <t>24_H_03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>M_38</t>
+          <t>M_62</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3748,21 +3748,21 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>23_A_01,21_A_02</t>
+          <t>21_A_01</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>M_32</t>
+          <t>M_26</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3784,21 +3784,21 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>23_A_01,21_A_02</t>
+          <t>21_A_01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>L_32</t>
+          <t>L_26</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3820,21 +3820,21 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>21_G_03,22_G_03</t>
+          <t>22_A_01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>M_24</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MT_37</t>
+          <t>MT_19</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3856,21 +3856,21 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>21_G_03,22_G_03</t>
+          <t>24_A_03,22_H_01</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>L_24</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>MT_37</t>
+          <t>MT_05</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3892,17 +3892,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>21_G_01</t>
+          <t>22_H_02,22_C_02,22_H_01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>P_08</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>PT_11</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -3928,17 +3928,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>22_G_02</t>
+          <t>21_H_02,24_A_02,23_C_02</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>M_12</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MT_21</t>
+          <t>PT_13</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3964,21 +3964,21 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>22_G_02</t>
+          <t>23_C_02</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>L_12</t>
+          <t>M_14</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>MT_21</t>
+          <t>MT_14</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4000,21 +4000,21 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>22_A_01,22_G_03</t>
+          <t>23_C_02</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>L_14</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>MT_14</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4036,21 +4036,21 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>22_A_01,22_G_03</t>
+          <t>23_H_02</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>L_16</t>
+          <t>M_01</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>MT_63</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4072,30 +4072,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>22_G_01,22_G_03</t>
+          <t>24_C_03</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>M_12</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PT_06</t>
+          <t>MT_25</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4108,21 +4108,21 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>22_G_03,21_G_02</t>
+          <t>22_H_03</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PT_25</t>
+          <t>PT_24</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4149,20 +4149,20 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>M_44</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PT_23</t>
+          <t>MT_29</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4180,17 +4180,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>24_G_02</t>
+          <t>22_H_02</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>M_67</t>
+          <t>M_34</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>MT_49</t>
+          <t>MT_50</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4216,21 +4216,21 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>23_G_03</t>
+          <t>22_H_01,23_H_03</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>M_52</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>MT_29</t>
+          <t>MT_68</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -4252,21 +4252,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>21_A_02</t>
+          <t>21_H_03</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>M_02</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>MT_54</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4288,21 +4288,21 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>21_A_02</t>
+          <t>22_C_03</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>L_02</t>
+          <t>M_07</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -4324,21 +4324,21 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>21_G_02</t>
+          <t>22_C_03</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>L_07</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>MT_68</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -4360,25 +4360,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>21_G_03</t>
+          <t>23_C_03</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>MT_30</t>
+          <t>PT_03</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4396,25 +4396,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>21_G_02</t>
+          <t>24_C_03</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>M_47</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>PT_24</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4432,21 +4432,21 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>21_G_02</t>
+          <t>23_A_02</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>L_47</t>
+          <t>M_62</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_24</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -4468,21 +4468,21 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>21_G_02</t>
+          <t>23_C_03</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>M_46</t>
+          <t>M_34</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_60</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4504,17 +4504,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>21_A_01,23_A_03</t>
+          <t>21_H_02,23_A_03</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>M_07</t>
+          <t>M_34</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>MT_45</t>
+          <t>MT_37</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4540,25 +4540,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>22_G_01</t>
+          <t>22_H_02</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PT_20</t>
+          <t>MT_31</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4576,30 +4576,30 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>24_A_01,24_A_03</t>
+          <t>22_C_01</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>M_12</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>MT_07</t>
+          <t>PT_23</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -4612,30 +4612,30 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>22_A_02</t>
+          <t>21_A_03,23_A_03</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>M_60</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>PT_15</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -4648,25 +4648,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>24_A_01,23_G_03</t>
+          <t>21_C_03,22_H_02</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_20</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>PT_20</t>
+          <t>MT_42</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>22_G_01</t>
+          <t>22_H_01,21_A_01</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4694,11 +4694,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4720,30 +4720,30 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>22_A_01,24_G_03,23_G_03</t>
+          <t>22_H_01,21_A_01</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>L_46</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4756,25 +4756,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>24_C_01</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>M_55</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>MT_36</t>
+          <t>PT_09</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4792,21 +4792,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>23_C_01,24_C_03</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>L_55</t>
+          <t>M_06</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>MT_36</t>
+          <t>MT_54</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4828,30 +4828,30 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>24_A_02,22_H_01</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>M_62</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4864,17 +4864,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>24_G_03</t>
+          <t>24_A_02,22_H_01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>L_62</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>MT_32</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4887,10 +4887,2494 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>24_H_03</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>P_04</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>PT_29</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>32</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>lc,mc</t>
         </is>
       </c>
-      <c r="H124" t="n">
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>22_C_03,22_A_03</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>M_57</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>MT_34</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>32</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>22_C_03,22_A_03</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>L_57</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>MT_34</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>15</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>21_H_01,23_H_01,24_C_02</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>M_48</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>MT_08</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>12</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>23_H_03</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>M_40</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>MT_38</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>20</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>23_H_03</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>L_40</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>MT_38</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>10</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>23_C_02</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>M_50</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MT_43</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>12</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>23_C_02</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>L_50</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>MT_43</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>6</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>24_A_02</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>M_65</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MT_08</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>24</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>24_A_02</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>L_65</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>MT_08</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>12</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>22_C_03,24_H_02</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>M_56</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>MT_24</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>8</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>21_H_01,24_A_02</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>M_40</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>MT_16</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>12</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>24_H_01,24_H_02,21_C_02</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>M_66</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>MT_28</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>20</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>21_C_02,21_A_02</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>P_05</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>PT_21</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>8</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>21_H_01</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>M_27</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>MT_30</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>16</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>22_A_03,23_C_03</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>M_31</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>MT_68</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>12</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>22_A_03,23_C_03</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>L_31</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>MT_68</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>6</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>23_A_01,21_H_02</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>M_40</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>MT_19</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>8</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>23_A_01,21_H_02</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>L_40</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>MT_19</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>23_A_03</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>M_41</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MT_64</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>24</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>23_A_03</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>L_41</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>MT_64</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>8</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>23_A_01</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>P_08</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>PT_18</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>24</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>24_A_02,22_A_01</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>M_64</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>MT_43</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>16</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>22_H_03</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>P_06</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>PT_25</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>16</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>24_H_01,21_A_03</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>M_31</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>MT_28</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>16</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>22_C_03,21_C_02</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>M_15</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>MT_61</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>32</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>22_C_03,21_C_02</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>L_15</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>MT_61</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>10</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>22_A_02</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>M_53</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>MT_67</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>8</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>22_A_02</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>L_53</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>MT_67</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>2</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>21_C_03</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>M_16</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>MT_03</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>16</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>21_C_01,22_A_02</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>M_27</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>MT_18</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>12</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>21_C_01,22_A_02</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>L_27</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>MT_18</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>6</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>24_A_02</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>P_06</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>PT_21</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>8</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>24_A_02</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>M_32</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>MT_08</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>20</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>22_H_02,24_A_03</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>M_42</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>MT_44</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>24</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>23_C_01,24_C_01</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>M_08</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>MT_31</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>24</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>23_C_01,24_C_01</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>L_08</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>MT_31</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>12</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>24_A_01,22_H_01</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>P_07</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>PT_12</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>8</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>23_H_03</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>M_15</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>MT_36</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>16</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>23_H_03</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>L_15</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>MT_36</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>5</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>23_A_02,22_H_03</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>M_42</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>MT_05</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>24</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>24_H_02,22_A_02</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>M_41</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>MT_26</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>8</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>24_H_03</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>P_02</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>PT_20</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>24</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>23_H_01</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>M_07</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>MT_69</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>8</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>23_H_01</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>L_07</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>MT_69</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>3</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>21_C_01,21_A_01</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>M_14</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>MT_63</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>16</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>23_A_01,24_C_01,21_A_03</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>M_14</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>MT_49</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>16</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>22_C_01</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>M_22</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>MT_68</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>24</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>22_C_01</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>L_22</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>MT_68</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>12</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>23_H_02,22_C_03</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>M_17</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>MT_42</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>32</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>23_H_02,22_C_03</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>L_17</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>MT_42</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>13</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>22_C_03,22_A_01</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>M_15</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>MT_07</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>16</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>24_A_03,22_A_02</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>M_38</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>MT_69</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>8</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>23_C_01</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>M_38</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>MT_12</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>8</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>23_C_01</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>L_38</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>MT_12</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>21_A_03</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>M_60</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>MT_07</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>12</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>24_C_02,22_A_02</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>P_04</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>PT_14</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>32</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>21_C_02</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>M_04</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>MT_21</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>8</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>22_H_03</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>P_08</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>PT_03</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>20</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>21_H_02,21_H_03,21_C_02</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>M_56</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>MT_40</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>24</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>24_A_03</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>P_05</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PT_27</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>12</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>22_A_03,23_C_02</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>P_02</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>PT_27</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>24</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>22_H_01</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>M_22</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>MT_39</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>16</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>22_H_01</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>L_22</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>MT_39</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>7</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>ll,ml</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>21_A_03,24_C_02</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>M_42</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>MT_47</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>12</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>23_A_02</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>M_59</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>MT_69</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>20</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>22_C_02,24_C_03</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>P_04</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>PT_17</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>32</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>mc</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>21_C_03</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>P_01</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>PT_25</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>12</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>21_C_03</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>P_06</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>PT_24</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>16</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>lc,mc</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4905,7 +7389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4961,7 +7445,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21_G_01</t>
+          <t>21_C_01</t>
         </is>
       </c>
     </row>
@@ -4971,7 +7455,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21_G_02</t>
+          <t>21_C_02</t>
         </is>
       </c>
     </row>
@@ -4981,7 +7465,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21_G_03</t>
+          <t>21_C_03</t>
         </is>
       </c>
     </row>
@@ -4991,7 +7475,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22_A_01</t>
+          <t>21_H_01</t>
         </is>
       </c>
     </row>
@@ -5001,7 +7485,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22_A_02</t>
+          <t>21_H_02</t>
         </is>
       </c>
     </row>
@@ -5011,7 +7495,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22_A_03</t>
+          <t>21_H_03</t>
         </is>
       </c>
     </row>
@@ -5021,7 +7505,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22_G_01</t>
+          <t>22_A_01</t>
         </is>
       </c>
     </row>
@@ -5031,7 +7515,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22_G_02</t>
+          <t>22_A_02</t>
         </is>
       </c>
     </row>
@@ -5041,7 +7525,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22_G_03</t>
+          <t>22_A_03</t>
         </is>
       </c>
     </row>
@@ -5051,7 +7535,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>22_C_01</t>
         </is>
       </c>
     </row>
@@ -5061,7 +7545,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>22_C_02</t>
         </is>
       </c>
     </row>
@@ -5071,7 +7555,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>22_C_03</t>
         </is>
       </c>
     </row>
@@ -5081,7 +7565,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23_G_01</t>
+          <t>22_H_01</t>
         </is>
       </c>
     </row>
@@ -5091,7 +7575,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23_G_02</t>
+          <t>22_H_02</t>
         </is>
       </c>
     </row>
@@ -5101,7 +7585,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23_G_03</t>
+          <t>22_H_03</t>
         </is>
       </c>
     </row>
@@ -5111,7 +7595,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>23_A_01</t>
         </is>
       </c>
     </row>
@@ -5121,7 +7605,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24_A_02</t>
+          <t>23_A_02</t>
         </is>
       </c>
     </row>
@@ -5131,7 +7615,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>23_A_03</t>
         </is>
       </c>
     </row>
@@ -5141,7 +7625,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>24_G_01</t>
+          <t>23_C_01</t>
         </is>
       </c>
     </row>
@@ -5151,7 +7635,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24_G_02</t>
+          <t>23_C_02</t>
         </is>
       </c>
     </row>
@@ -5161,7 +7645,127 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24_G_03</t>
+          <t>23_C_03</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>23_H_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23_H_02</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23_H_03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>24_A_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>24_A_02</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>24_A_03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>24_C_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>24_C_02</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>24_C_03</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>24_H_01</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>24_H_02</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>24_H_03</t>
         </is>
       </c>
     </row>
@@ -5176,7 +7780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5217,7 +7821,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,1,0,-1,0</t>
+          <t>0,-1,0,0,-1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5237,12 +7841,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,1,0,1,0</t>
+          <t>-1,0,0,1,0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5257,12 +7861,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,1,0,-1,1</t>
+          <t>1,0,-1,-1,0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -5277,12 +7881,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,-1,0,-1,0</t>
+          <t>1,1,0,0,0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5297,12 +7901,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,1,0,0,1</t>
+          <t>1,-1,0,0,-1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -5312,17 +7916,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MT_11</t>
+          <t>MT_09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,0,-1,0,0</t>
+          <t>-1,-1,0,-1,0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5332,12 +7936,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,1,1,0,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5352,17 +7956,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MT_16</t>
+          <t>MT_11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1,0,-1,-1,0</t>
+          <t>1,1,1,1,0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5372,17 +7976,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MT_21</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1,0,-1,-1,0</t>
+          <t>-1,-1,-1,0,1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5392,7 +7996,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>MT_14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5412,12 +8016,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MT_28</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,0,-1,1,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5432,12 +8036,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MT_29</t>
+          <t>MT_16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,0,1,1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5452,17 +8056,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MT_30</t>
+          <t>MT_18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,1,1,-1,0</t>
+          <t>0,-1,1,0,-1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5472,17 +8076,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1,0,0,1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5492,12 +8096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MT_32</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1,0,0,1,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5512,17 +8116,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MT_33</t>
+          <t>MT_21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,-1,0,0,1</t>
+          <t>0,1,0,0,0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -5532,12 +8136,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>MT_22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1,0,-1,0,-1</t>
+          <t>-1,0,1,-1,0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5552,17 +8156,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MT_36</t>
+          <t>MT_24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,0,0,-1,1</t>
+          <t>-1,0,-1,1,1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5572,12 +8176,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MT_37</t>
+          <t>MT_25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,0,0,1,1</t>
+          <t>1,0,1,0,-1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5592,17 +8196,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,0,1,1,1</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5612,17 +8216,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MT_45</t>
+          <t>MT_28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,0,-1,-1,0</t>
+          <t>1,1,0,0,0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -5632,12 +8236,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MT_47</t>
+          <t>MT_29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-1,0,1,0,-1</t>
+          <t>0,0,-1,-1,0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -5652,17 +8256,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MT_48</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1,0,0,-1,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5672,17 +8276,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MT_49</t>
+          <t>MT_31</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1,-1,0,0,-1</t>
+          <t>1,-1,0,-1,-1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -5692,17 +8296,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>MT_34</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1,-1,0,-1,0</t>
+          <t>1,1,-1,1,1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -5712,12 +8316,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MT_52</t>
+          <t>MT_35</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,-1,0,0,0</t>
+          <t>0,0,0,1,-1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5732,17 +8336,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>MT_36</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,1,1,0,0</t>
+          <t>1,0,0,-1,0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -5752,17 +8356,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MT_55</t>
+          <t>MT_37</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-1,0,1,-1,1</t>
+          <t>-1,0,0,-1,1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5772,17 +8376,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MT_58</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,0,-1,-1,0</t>
+          <t>0,-1,1,-1,0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5792,17 +8396,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>MT_39</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-1,0,0,0,0</t>
+          <t>0,0,0,-1,-1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5812,12 +8416,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MT_61</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1,1,-1,0,0</t>
+          <t>-1,0,1,-1,0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5832,17 +8436,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MT_62</t>
+          <t>MT_42</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,-1,-1,0,0</t>
+          <t>-1,-1,0,0,-1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -5852,12 +8456,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>MT_43</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>1,-1,-1,0,0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5872,17 +8476,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MT_65</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,-1,-1,-1,-1</t>
+          <t>-1,1,-1,-1,0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5892,17 +8496,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MT_66</t>
+          <t>MT_47</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-1,1,-1,0,-1</t>
+          <t>0,1,0,1,-1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5912,12 +8516,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_49</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-1,-1,0,1,0</t>
+          <t>1,0,-1,0,-1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5932,12 +8536,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MT_68</t>
+          <t>MT_50</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1,-1,-1,0,1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5952,12 +8556,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PT_02</t>
+          <t>MT_51</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,0,-1,1,0</t>
+          <t>0,1,-1,0,-1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5972,12 +8576,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PT_03</t>
+          <t>MT_52</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-1,1,0,-1,0</t>
+          <t>1,-1,0,0,0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5992,12 +8596,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PT_04</t>
+          <t>MT_53</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,1,1,0,0</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6012,17 +8616,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PT_05</t>
+          <t>MT_54</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,1,1,0,1</t>
+          <t>0,-1,0,1,0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -6032,17 +8636,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PT_06</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,-1,0,1,-1</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6052,17 +8656,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PT_07</t>
+          <t>MT_58</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1,0,1,-1,1</t>
+          <t>-1,-1,0,-1,-1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -6072,12 +8676,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PT_09</t>
+          <t>MT_59</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-1,1,0,-1,-1</t>
+          <t>-1,1,0,1,0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6092,17 +8696,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PT_10</t>
+          <t>MT_60</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,0,0,-1,0</t>
+          <t>0,-1,-1,0,0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6112,17 +8716,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PT_11</t>
+          <t>MT_61</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-1,0,0,1,1</t>
+          <t>1,0,-1,1,1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6132,12 +8736,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,-1,1,0,0</t>
+          <t>0,-1,0,1,1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -6152,12 +8756,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PT_13</t>
+          <t>MT_63</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6172,17 +8776,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PT_14</t>
+          <t>MT_64</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,-1,0,0,0</t>
+          <t>-1,0,0,1,0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -6192,12 +8796,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0,0,1,-1,1</t>
+          <t>-1,-1,0,0,0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6212,12 +8816,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PT_19</t>
+          <t>MT_67</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1,0,-1,1,1</t>
+          <t>0,-1,-1,0,0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6232,17 +8836,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PT_20</t>
+          <t>MT_68</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-1,0,0,0,0</t>
+          <t>1,0,1,0,1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6252,17 +8856,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PT_23</t>
+          <t>MT_69</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1,0,1,0,0</t>
+          <t>0,-1,0,1,1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6272,12 +8876,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PT_25</t>
+          <t>PT_02</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,0,-1,1,1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6292,17 +8896,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>PT_03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-1,0,0,-1,-1</t>
+          <t>0,1,0,-1,0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -6312,15 +8916,415 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>PT_04</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PT_06</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1,0,0,1,0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PT_09</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,-1,0,-1,0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PT_10</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1,1,-1,0,0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PT_11</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0,0,1,1,0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PT_12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PT_13</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0,0,0,0,-1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PT_14</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0,1,0,-1,1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PT_15</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1,1,0,0,0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PT_16</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0,0,0,0,1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PT_17</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,-1,0,0,-1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PT_18</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0,0,0,0,1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PT_19</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-1,1,1,0,-1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PT_20</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PT_21</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0,0,-1,1,0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PT_23</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0,0,0,-1,0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PT_24</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,0,0,1,0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PT_25</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-1,0,1,0,0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PT_27</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0,0,0,0,-1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>PT_28</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>-1,-1,0,1,0</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1,0,0,-1,0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PT_29</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0,0,0,0,-1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6337,7 +9341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6373,7 +9377,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,1,-1,0,0</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -6388,7 +9392,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1,1,0,0,0</t>
+          <t>-1,0,1,-1,-1</t>
         </is>
       </c>
     </row>
@@ -6398,12 +9402,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L_08</t>
+          <t>L_03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,-1,1,1,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
     </row>
@@ -6413,12 +9417,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L_12</t>
+          <t>L_04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1,-1,0,0,1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -6428,12 +9432,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L_14</t>
+          <t>L_07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,1,-1,1,-1</t>
+          <t>1,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -6443,12 +9447,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L_16</t>
+          <t>L_08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1,1,-1,0,1</t>
+          <t>0,1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -6458,12 +9462,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L_20</t>
+          <t>L_12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1,0,-1,0,0</t>
+          <t>-1,1,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -6473,12 +9477,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L_22</t>
+          <t>L_14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1,-1,-1,0,0</t>
+          <t>-1,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6488,12 +9492,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L_23</t>
+          <t>L_15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1,-1,-1,-1,-1</t>
+          <t>-1,-1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -6503,12 +9507,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L_24</t>
+          <t>L_17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1,0,-1,-1,-1</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
     </row>
@@ -6518,12 +9522,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>L_25</t>
+          <t>L_21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,0,-1,0,-1</t>
+          <t>0,-1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -6533,12 +9537,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>L_27</t>
+          <t>L_22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1,0,0,-1,1</t>
+          <t>0,-1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -6548,12 +9552,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>L_28</t>
+          <t>L_25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1,0,1,0,0</t>
+          <t>0,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -6563,12 +9567,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>L_30</t>
+          <t>L_26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1,0,-1,0,1</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -6578,12 +9582,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>L_32</t>
+          <t>L_27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1,-1,1,0,0</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6593,12 +9597,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>L_34</t>
+          <t>L_29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-1,-1,0,1,0</t>
+          <t>1,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -6608,12 +9612,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>L_38</t>
+          <t>L_30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,-1,1,-1,1</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -6623,12 +9627,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>L_39</t>
+          <t>L_31</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,1,-1,-1,-1</t>
+          <t>0,1,1,0,0</t>
         </is>
       </c>
     </row>
@@ -6638,12 +9642,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>L_40</t>
+          <t>L_32</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,-1,0,1,-1</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6653,12 +9657,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>L_45</t>
+          <t>L_38</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-1,1,0,1,-1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -6668,12 +9672,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L_47</t>
+          <t>L_40</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1,-1,0,0,-1</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6683,12 +9687,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L_51</t>
+          <t>L_41</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,1,1,0,0</t>
+          <t>-1,1,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -6698,12 +9702,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>L_55</t>
+          <t>L_43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-1,0,-1,0,0</t>
+          <t>-1,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -6713,12 +9717,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>L_44</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,-1,0,-1,0</t>
+          <t>0,-1,0,1,0</t>
         </is>
       </c>
     </row>
@@ -6728,12 +9732,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L_65</t>
+          <t>L_46</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,-1,0,1,1</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -6743,12 +9747,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>M_01</t>
+          <t>L_50</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1,-1,1,0,0</t>
+          <t>0,1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -6758,12 +9762,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>M_02</t>
+          <t>L_52</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1,0,-1,0,0</t>
+          <t>0,0,-1,-1,0</t>
         </is>
       </c>
     </row>
@@ -6773,12 +9777,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M_03</t>
+          <t>L_53</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,1,0,-1,0</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6788,12 +9792,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>M_07</t>
+          <t>L_57</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,0,0,-1,-1</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6803,12 +9807,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>M_08</t>
+          <t>L_62</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-1,-1,1,-1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6818,12 +9822,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M_09</t>
+          <t>L_63</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1,-1,-1,-1,1</t>
+          <t>0,1,-1,-1,0</t>
         </is>
       </c>
     </row>
@@ -6833,12 +9837,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>M_10</t>
+          <t>L_64</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,-1,1,1,-1</t>
+          <t>0,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6848,12 +9852,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>M_12</t>
+          <t>L_65</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,0,0,0,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6863,12 +9867,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M_14</t>
+          <t>L_67</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1,0,-1,1,0</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6878,12 +9882,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>M_15</t>
+          <t>L_69</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1,0,1,-1,1</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -6893,12 +9897,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>M_01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,0,0,1,1</t>
+          <t>1,0,-1,1,-1</t>
         </is>
       </c>
     </row>
@@ -6908,12 +9912,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M_19</t>
+          <t>M_02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,0,-1,-1,-1</t>
+          <t>0,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6923,12 +9927,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M_20</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,-1,0,0,1</t>
+          <t>0,-1,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -6938,12 +9942,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>M_04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,-1,1,0,0</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6953,12 +9957,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M_22</t>
+          <t>M_06</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1,-1,1,-1,-1</t>
+          <t>0,1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -6968,12 +9972,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1,0,1,1,0</t>
+          <t>0,-1,0,1,0</t>
         </is>
       </c>
     </row>
@@ -6983,12 +9987,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M_24</t>
+          <t>M_08</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1,1,-1,0,1</t>
+          <t>0,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -6998,12 +10002,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M_25</t>
+          <t>M_12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>0,0,-1,0,-1</t>
         </is>
       </c>
     </row>
@@ -7013,12 +10017,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>M_26</t>
+          <t>M_14</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,-1,-1,1,-1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -7028,12 +10032,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M_27</t>
+          <t>M_15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,1,-1,-1,1</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -7043,12 +10047,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M_28</t>
+          <t>M_16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,0,-1,0,1</t>
+          <t>0,0,-1,0,-1</t>
         </is>
       </c>
     </row>
@@ -7058,12 +10062,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>M_29</t>
+          <t>M_17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1,1,-1,-1,-1</t>
+          <t>0,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -7073,12 +10077,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>M_20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-1,0,1,-1,0</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -7088,12 +10092,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>M_32</t>
+          <t>M_21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-1,-1,0,-1,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -7103,12 +10107,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>M_34</t>
+          <t>M_22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0,1,0,1,1</t>
+          <t>-1,0,-1,0,1</t>
         </is>
       </c>
     </row>
@@ -7118,12 +10122,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>M_38</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,1,0,0,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -7133,12 +10137,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M_39</t>
+          <t>M_25</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-1,-1,1,0,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
     </row>
@@ -7148,12 +10152,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>M_40</t>
+          <t>M_26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-1,1,1,-1,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
     </row>
@@ -7163,12 +10167,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>M_41</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-1,1,1,-1,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -7178,12 +10182,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>M_42</t>
+          <t>M_28</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1,0,1,0,1</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -7193,12 +10197,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M_44</t>
+          <t>M_29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0,0,0,1,0</t>
+          <t>0,0,1,-1,1</t>
         </is>
       </c>
     </row>
@@ -7208,12 +10212,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>M_30</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,-1,0,0,0</t>
+          <t>0,1,0,0,1</t>
         </is>
       </c>
     </row>
@@ -7223,12 +10227,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M_46</t>
+          <t>M_31</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1,-1,0,1,1</t>
+          <t>1,-1,1,0,0</t>
         </is>
       </c>
     </row>
@@ -7238,12 +10242,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M_47</t>
+          <t>M_32</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0,-1,-1,-1,1</t>
+          <t>0,1,0,0,1</t>
         </is>
       </c>
     </row>
@@ -7253,12 +10257,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>M_34</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1,-1,1,-1,-1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -7268,12 +10272,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-1,0,1,1,0</t>
+          <t>-1,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -7283,12 +10287,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>M_52</t>
+          <t>M_38</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-1,1,1,0,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -7298,12 +10302,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>M_53</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-1,0,0,1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -7313,12 +10317,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M_55</t>
+          <t>M_41</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1,0,0,-1,0</t>
+          <t>1,-1,1,1,0</t>
         </is>
       </c>
     </row>
@@ -7328,12 +10332,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>M_56</t>
+          <t>M_42</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,0,-1,0,-1</t>
+          <t>0,-1,1,0,1</t>
         </is>
       </c>
     </row>
@@ -7343,12 +10347,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>M_57</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-1,1,-1,0,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -7358,12 +10362,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M_60</t>
+          <t>M_44</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-1,1,-1,1,-1</t>
+          <t>0,-1,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -7373,12 +10377,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>M_46</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-1,0,0,0,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -7388,12 +10392,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>M_65</t>
+          <t>M_47</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0,-1,0,1,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -7403,12 +10407,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>M_66</t>
+          <t>M_48</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-1,0,1,0,1</t>
+          <t>0,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -7418,12 +10422,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M_67</t>
+          <t>M_50</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-1,1,-1,1,-1</t>
+          <t>1,0,1,-1,0</t>
         </is>
       </c>
     </row>
@@ -7433,12 +10437,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_52</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0,-1,-1,0,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -7448,12 +10452,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_53</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1,-1,-1,-1,0</t>
+          <t>0,0,0,-1,1</t>
         </is>
       </c>
     </row>
@@ -7463,12 +10467,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>M_54</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1,0,0,-1,1</t>
+          <t>-1,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -7478,12 +10482,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>M_56</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-1,0,0,-1,0</t>
+          <t>-1,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -7493,12 +10497,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>M_57</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1,1,1,0,0</t>
+          <t>-1,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -7508,12 +10512,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>M_59</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0,-1,0,-1,1</t>
+          <t>0,-1,0,0,1</t>
         </is>
       </c>
     </row>
@@ -7523,12 +10527,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_60</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1,0,0,1,1</t>
+          <t>0,0,0,-1,1</t>
         </is>
       </c>
     </row>
@@ -7538,12 +10542,237 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>M_62</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>M_63</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1,0,1,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>M_64</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>M_65</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1,0,1,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>M_66</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>M_67</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1,0,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>M_69</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0,1,0,-1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>P_01</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0,0,1,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>P_02</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1,-1,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>P_03</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>P_04</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>P_05</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0,-1,0,-1,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>P_06</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>P_07</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0,0,0,0,-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>P_08</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>P_09</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>-1,-1,0,0,0</t>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
